--- a/Transfer application form HUMSA.xlsx
+++ b/Transfer application form HUMSA.xlsx
@@ -8848,8 +8848,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AO77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -9090,10 +9090,7 @@
       <c r="E8" s="430" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="415">
-        <f>-B256-9-30</f>
-        <v>-39</v>
-      </c>
+      <c r="F8" s="415"/>
       <c r="G8" s="144"/>
       <c r="H8" s="141"/>
       <c r="J8" s="167" t="s">
@@ -9412,7 +9409,9 @@
       <c r="A21" s="454" t="s">
         <v>468</v>
       </c>
-      <c r="B21" s="468"/>
+      <c r="B21" s="468">
+        <v>50100251042231</v>
+      </c>
       <c r="C21" s="469"/>
       <c r="D21" s="470"/>
       <c r="E21" s="143"/>
@@ -10524,7 +10523,7 @@
       </c>
       <c r="B37" s="33">
         <f>MASTERSHEET!F8</f>
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="C37" s="21"/>
     </row>
